--- a/REGULAR/PATAWE, ELMA.xlsx
+++ b/REGULAR/PATAWE, ELMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E62192-9AA0-4305-9888-99F28ACDD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="302">
   <si>
     <t>PERIOD</t>
   </si>
@@ -946,7 +945,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1806,7 +1805,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1848,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1912,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1972,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2038,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2101,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2199,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2258,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2323,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2366,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2441,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2627,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2693,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2751,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +2817,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2873,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2948,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2991,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3057,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3113,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3211,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3274,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,25 +3340,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K411" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K411" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3371,13 +3370,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3386,14 +3385,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3697,7 +3696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3707,7 +3706,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3715,34 +3714,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K411"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A385" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
+      <selection pane="bottomLeft" activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3763,7 +3762,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3781,7 +3780,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3803,7 +3802,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3811,7 +3810,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3824,7 +3823,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3841,7 +3840,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3885,7 +3884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.62</v>
+        <v>101.12</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3895,12 +3894,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>225</v>
+        <v>226.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3922,7 +3921,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36526</v>
       </c>
@@ -3946,7 +3945,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36557</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36586</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36617</v>
       </c>
@@ -4010,7 +4009,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -4034,7 +4033,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -4058,7 +4057,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -4082,7 +4081,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36770</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>55</v>
@@ -4156,7 +4155,7 @@
         <v>36777</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>56</v>
@@ -4176,7 +4175,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>58</v>
@@ -4224,7 +4223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>60</v>
@@ -4246,7 +4245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36831</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36861</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4320,7 +4319,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36892</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>58</v>
@@ -4368,7 +4367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>70</v>
@@ -4390,7 +4389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36923</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36951</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36982</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37012</v>
       </c>
@@ -4486,7 +4485,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -4508,7 +4507,7 @@
         <v>37026</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37043</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37073</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37104</v>
       </c>
@@ -4578,7 +4577,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37135</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37165</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37196</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>77</v>
@@ -4676,7 +4675,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37226</v>
       </c>
@@ -4700,7 +4699,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>47</v>
       </c>
@@ -4722,7 +4721,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37257</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4766,7 +4765,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37288</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>58</v>
@@ -4814,7 +4813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>52</v>
@@ -4834,7 +4833,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37316</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>37319</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>58</v>
@@ -4882,7 +4881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -4902,7 +4901,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37347</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>57</v>
@@ -4950,7 +4949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>88</v>
@@ -4970,7 +4969,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37377</v>
       </c>
@@ -4994,7 +4993,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37408</v>
       </c>
@@ -5018,7 +5017,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37438</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>37438</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -5066,7 +5065,7 @@
         <v>37463</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37469</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>37473</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -5114,7 +5113,7 @@
         <v>37482</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>77</v>
@@ -5134,7 +5133,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37500</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37530</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>37531</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>98</v>
@@ -5208,7 +5207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>99</v>
@@ -5228,7 +5227,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37561</v>
       </c>
@@ -5252,7 +5251,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37591</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>56</v>
@@ -5298,7 +5297,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>46</v>
       </c>
@@ -5320,7 +5319,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37622</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37653</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>37662</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>105</v>
@@ -5392,7 +5391,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37681</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>37699</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>104</v>
@@ -5440,7 +5439,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37712</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>37732</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37742</v>
       </c>
@@ -5486,7 +5485,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37773</v>
       </c>
@@ -5510,7 +5509,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37803</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37834</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37865</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37895</v>
       </c>
@@ -5596,7 +5595,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37926</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37956</v>
       </c>
@@ -5642,7 +5641,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>45</v>
       </c>
@@ -5664,7 +5663,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37987</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38018</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38047</v>
       </c>
@@ -5736,7 +5735,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38078</v>
       </c>
@@ -5756,7 +5755,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38108</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38139</v>
       </c>
@@ -5796,7 +5795,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38169</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>49</v>
@@ -5842,7 +5841,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38200</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>38204</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>113</v>
@@ -5888,7 +5887,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38231</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38261</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>116</v>
@@ -5958,7 +5957,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38292</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38322</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>55</v>
@@ -6032,7 +6031,7 @@
         <v>38342</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>117</v>
@@ -6052,7 +6051,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>44</v>
       </c>
@@ -6074,7 +6073,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38353</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>115</v>
@@ -6120,7 +6119,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>55</v>
@@ -6142,7 +6141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>130</v>
@@ -6160,7 +6159,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38384</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>131</v>
@@ -6208,7 +6207,7 @@
         <v>38393</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38412</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>55</v>
@@ -6256,7 +6255,7 @@
         <v>38432</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38443</v>
       </c>
@@ -6276,7 +6275,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38473</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>132</v>
@@ -6324,7 +6323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38504</v>
       </c>
@@ -6344,7 +6343,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38534</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>38554</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38565</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>38565</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>58</v>
@@ -6418,7 +6417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38596</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>38596</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>55</v>
@@ -6466,7 +6465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -6484,7 +6483,7 @@
         <v>38611</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38626</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>58</v>
@@ -6532,7 +6531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>138</v>
@@ -6554,7 +6553,7 @@
         <v>38651</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38657</v>
       </c>
@@ -6578,7 +6577,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38687</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>140</v>
@@ -6624,7 +6623,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>127</v>
       </c>
@@ -6646,7 +6645,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38718</v>
       </c>
@@ -6670,7 +6669,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38749</v>
       </c>
@@ -6694,7 +6693,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38777</v>
       </c>
@@ -6718,7 +6717,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38808</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>145</v>
@@ -6764,7 +6763,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38838</v>
       </c>
@@ -6788,7 +6787,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38869</v>
       </c>
@@ -6812,7 +6811,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38899</v>
       </c>
@@ -6836,7 +6835,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38930</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>149</v>
@@ -6882,7 +6881,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38961</v>
       </c>
@@ -6906,7 +6905,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38991</v>
       </c>
@@ -6932,7 +6931,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>151</v>
@@ -6952,7 +6951,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39022</v>
       </c>
@@ -6976,7 +6975,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39052</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>153</v>
@@ -7022,7 +7021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>138</v>
@@ -7042,7 +7041,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>154</v>
@@ -7062,7 +7061,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>126</v>
       </c>
@@ -7084,7 +7083,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39083</v>
       </c>
@@ -7108,7 +7107,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39114</v>
       </c>
@@ -7132,7 +7131,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39142</v>
       </c>
@@ -7156,7 +7155,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39173</v>
       </c>
@@ -7176,7 +7175,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39203</v>
       </c>
@@ -7196,7 +7195,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39234</v>
       </c>
@@ -7220,7 +7219,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39264</v>
       </c>
@@ -7244,7 +7243,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39295</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7290,7 +7289,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>163</v>
@@ -7310,7 +7309,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39326</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>132</v>
@@ -7358,7 +7357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>164</v>
@@ -7378,7 +7377,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39356</v>
       </c>
@@ -7402,7 +7401,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39387</v>
       </c>
@@ -7426,7 +7425,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39417</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>125</v>
       </c>
@@ -7472,7 +7471,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39448</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>138</v>
@@ -7518,7 +7517,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>170</v>
@@ -7538,7 +7537,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39479</v>
       </c>
@@ -7562,7 +7561,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39508</v>
       </c>
@@ -7586,7 +7585,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39539</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>173</v>
@@ -7632,7 +7631,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>174</v>
@@ -7652,7 +7651,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39569</v>
       </c>
@@ -7676,7 +7675,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39600</v>
       </c>
@@ -7700,7 +7699,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39630</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>177</v>
@@ -7748,7 +7747,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>178</v>
@@ -7768,7 +7767,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39661</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>74</v>
@@ -7814,7 +7813,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39692</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>180</v>
@@ -7860,7 +7859,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39722</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>179</v>
@@ -7906,7 +7905,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39753</v>
       </c>
@@ -7930,7 +7929,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39783</v>
       </c>
@@ -7954,7 +7953,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>124</v>
       </c>
@@ -7976,7 +7975,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39814</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>115</v>
@@ -8020,7 +8019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>189</v>
@@ -8044,7 +8043,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39845</v>
       </c>
@@ -8072,7 +8071,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39873</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>191</v>
@@ -8122,7 +8121,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39904</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>58</v>
@@ -8170,7 +8169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>57</v>
@@ -8192,7 +8191,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39934</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>193</v>
@@ -8236,7 +8235,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39965</v>
       </c>
@@ -8256,7 +8255,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39995</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40026</v>
       </c>
@@ -8308,7 +8307,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40057</v>
       </c>
@@ -8332,7 +8331,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40087</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>197</v>
@@ -8380,7 +8379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40118</v>
       </c>
@@ -8402,7 +8401,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40148</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>211</v>
@@ -8454,7 +8453,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>123</v>
       </c>
@@ -8476,7 +8475,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40179</v>
       </c>
@@ -8500,7 +8499,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40210</v>
       </c>
@@ -8524,7 +8523,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40238</v>
       </c>
@@ -8548,7 +8547,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40269</v>
       </c>
@@ -8572,7 +8571,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40299</v>
       </c>
@@ -8596,7 +8595,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40330</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>226</v>
@@ -8642,7 +8641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>224</v>
@@ -8662,7 +8661,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40360</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>77</v>
@@ -8708,7 +8707,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>40391</v>
       </c>
@@ -8732,7 +8731,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40422</v>
       </c>
@@ -8756,7 +8755,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40452</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>115</v>
@@ -8802,7 +8801,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>229</v>
@@ -8822,7 +8821,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>40483</v>
       </c>
@@ -8846,7 +8845,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40513</v>
       </c>
@@ -8870,7 +8869,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>218</v>
       </c>
@@ -8892,7 +8891,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40544</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>40575</v>
       </c>
@@ -8942,7 +8941,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40603</v>
       </c>
@@ -8966,7 +8965,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40634</v>
       </c>
@@ -8990,7 +8989,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40664</v>
       </c>
@@ -9014,7 +9013,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40695</v>
       </c>
@@ -9038,7 +9037,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>40725</v>
       </c>
@@ -9062,7 +9061,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40756</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>244</v>
@@ -9108,7 +9107,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40787</v>
       </c>
@@ -9128,7 +9127,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40817</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40848</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40878</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>153</v>
@@ -9224,7 +9223,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>247</v>
@@ -9244,7 +9243,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
         <v>217</v>
       </c>
@@ -9266,7 +9265,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40909</v>
       </c>
@@ -9286,7 +9285,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40940</v>
       </c>
@@ -9306,7 +9305,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>40969</v>
       </c>
@@ -9326,7 +9325,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41000</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41030</v>
       </c>
@@ -9372,7 +9371,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41061</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41091</v>
       </c>
@@ -9416,7 +9415,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41122</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>115</v>
@@ -9462,7 +9461,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41153</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>254</v>
@@ -9510,7 +9509,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>255</v>
@@ -9530,7 +9529,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41183</v>
       </c>
@@ -9550,7 +9549,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41214</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>41231</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41244</v>
       </c>
@@ -9596,7 +9595,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="48" t="s">
         <v>216</v>
       </c>
@@ -9618,7 +9617,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41275</v>
       </c>
@@ -9642,7 +9641,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41306</v>
       </c>
@@ -9666,7 +9665,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>41334</v>
       </c>
@@ -9690,7 +9689,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>41365</v>
       </c>
@@ -9714,7 +9713,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>41395</v>
       </c>
@@ -9738,7 +9737,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41426</v>
       </c>
@@ -9762,7 +9761,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>41456</v>
       </c>
@@ -9786,7 +9785,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41487</v>
       </c>
@@ -9806,7 +9805,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>41518</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>138</v>
@@ -9854,7 +9853,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>41548</v>
       </c>
@@ -9874,7 +9873,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41579</v>
       </c>
@@ -9894,7 +9893,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>41609</v>
       </c>
@@ -9914,7 +9913,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>215</v>
       </c>
@@ -9936,7 +9935,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>41640</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>41671</v>
       </c>
@@ -9980,7 +9979,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41699</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>41730</v>
       </c>
@@ -10024,7 +10023,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>41760</v>
       </c>
@@ -10044,7 +10043,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>41791</v>
       </c>
@@ -10064,7 +10063,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>41821</v>
       </c>
@@ -10084,7 +10083,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>41852</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>41883</v>
       </c>
@@ -10124,7 +10123,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41913</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>41944</v>
       </c>
@@ -10172,7 +10171,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>138</v>
@@ -10192,7 +10191,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="49"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>41974</v>
       </c>
@@ -10216,7 +10215,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>214</v>
       </c>
@@ -10238,7 +10237,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42005</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42036</v>
       </c>
@@ -10278,7 +10277,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42064</v>
       </c>
@@ -10298,7 +10297,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42095</v>
       </c>
@@ -10318,7 +10317,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42125</v>
       </c>
@@ -10338,7 +10337,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42156</v>
       </c>
@@ -10358,7 +10357,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42186</v>
       </c>
@@ -10378,7 +10377,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42217</v>
       </c>
@@ -10398,7 +10397,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42248</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>104</v>
@@ -10444,7 +10443,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42278</v>
       </c>
@@ -10464,7 +10463,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42309</v>
       </c>
@@ -10484,7 +10483,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>42339</v>
       </c>
@@ -10508,7 +10507,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>276</v>
       </c>
@@ -10530,7 +10529,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42370</v>
       </c>
@@ -10550,7 +10549,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42401</v>
       </c>
@@ -10570,7 +10569,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42430</v>
       </c>
@@ -10590,7 +10589,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42461</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>42491</v>
       </c>
@@ -10636,7 +10635,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42522</v>
       </c>
@@ -10656,7 +10655,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>42552</v>
       </c>
@@ -10676,7 +10675,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42583</v>
       </c>
@@ -10696,7 +10695,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42614</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42644</v>
       </c>
@@ -10742,7 +10741,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42675</v>
       </c>
@@ -10762,7 +10761,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42705</v>
       </c>
@@ -10782,7 +10781,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="48" t="s">
         <v>275</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42736</v>
       </c>
@@ -10824,7 +10823,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42767</v>
       </c>
@@ -10844,7 +10843,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>42795</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>115</v>
@@ -10888,7 +10887,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>42826</v>
       </c>
@@ -10908,7 +10907,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>42856</v>
       </c>
@@ -10928,7 +10927,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>42887</v>
       </c>
@@ -10948,7 +10947,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>42917</v>
       </c>
@@ -10968,7 +10967,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>42948</v>
       </c>
@@ -10988,7 +10987,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>42979</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43009</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43040</v>
       </c>
@@ -11060,7 +11059,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43070</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>104</v>
@@ -11108,7 +11107,7 @@
         <v>43088</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="48" t="s">
         <v>274</v>
       </c>
@@ -11130,7 +11129,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43101</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>115</v>
@@ -11174,7 +11173,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43132</v>
       </c>
@@ -11194,7 +11193,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43160</v>
       </c>
@@ -11214,7 +11213,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43191</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43221</v>
       </c>
@@ -11258,7 +11257,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43252</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43282</v>
       </c>
@@ -11304,7 +11303,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43313</v>
       </c>
@@ -11324,7 +11323,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43344</v>
       </c>
@@ -11344,7 +11343,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43374</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43405</v>
       </c>
@@ -11390,7 +11389,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43435</v>
       </c>
@@ -11414,7 +11413,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="48" t="s">
         <v>273</v>
       </c>
@@ -11436,7 +11435,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43466</v>
       </c>
@@ -11456,7 +11455,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43497</v>
       </c>
@@ -11476,7 +11475,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43525</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43556</v>
       </c>
@@ -11524,7 +11523,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43586</v>
       </c>
@@ -11544,7 +11543,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43617</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43647</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43678</v>
       </c>
@@ -11614,7 +11613,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43709</v>
       </c>
@@ -11634,7 +11633,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43739</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43770</v>
       </c>
@@ -11680,7 +11679,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43800</v>
       </c>
@@ -11704,7 +11703,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>272</v>
       </c>
@@ -11726,7 +11725,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43831</v>
       </c>
@@ -11746,7 +11745,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43862</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>115</v>
@@ -11790,7 +11789,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>115</v>
@@ -11810,7 +11809,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43891</v>
       </c>
@@ -11830,7 +11829,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43922</v>
       </c>
@@ -11850,7 +11849,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43952</v>
       </c>
@@ -11870,7 +11869,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>43983</v>
       </c>
@@ -11890,7 +11889,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44013</v>
       </c>
@@ -11910,7 +11909,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44044</v>
       </c>
@@ -11930,7 +11929,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44075</v>
       </c>
@@ -11950,7 +11949,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44105</v>
       </c>
@@ -11970,7 +11969,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44136</v>
       </c>
@@ -11990,7 +11989,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44166</v>
       </c>
@@ -12014,7 +12013,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>271</v>
       </c>
@@ -12036,7 +12035,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44197</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44228</v>
       </c>
@@ -12080,7 +12079,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44256</v>
       </c>
@@ -12100,7 +12099,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44287</v>
       </c>
@@ -12120,7 +12119,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44317</v>
       </c>
@@ -12140,7 +12139,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44348</v>
       </c>
@@ -12160,7 +12159,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44378</v>
       </c>
@@ -12180,7 +12179,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44409</v>
       </c>
@@ -12200,7 +12199,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44440</v>
       </c>
@@ -12220,7 +12219,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44470</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44501</v>
       </c>
@@ -12264,7 +12263,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44531</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="48" t="s">
         <v>294</v>
       </c>
@@ -12312,7 +12311,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44562</v>
       </c>
@@ -12332,7 +12331,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44593</v>
       </c>
@@ -12352,7 +12351,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44621</v>
       </c>
@@ -12372,7 +12371,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44652</v>
       </c>
@@ -12392,7 +12391,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44682</v>
       </c>
@@ -12412,7 +12411,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44713</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44774</v>
       </c>
@@ -12484,7 +12483,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44805</v>
       </c>
@@ -12504,7 +12503,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44835</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44866</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44896</v>
       </c>
@@ -12572,7 +12571,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="48" t="s">
         <v>299</v>
       </c>
@@ -12590,7 +12589,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>44927</v>
       </c>
@@ -12610,7 +12609,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44958</v>
       </c>
@@ -12630,47 +12629,53 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>44986</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45017</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45047</v>
       </c>
-      <c r="B400" s="20"/>
+      <c r="B400" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
@@ -12679,12 +12684,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H400" s="39"/>
+      <c r="H400" s="39">
+        <v>1</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K400" s="49">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45078</v>
       </c>
@@ -12702,7 +12711,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45108</v>
       </c>
@@ -12720,7 +12729,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45139</v>
       </c>
@@ -12738,7 +12747,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45170</v>
       </c>
@@ -12756,7 +12765,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45200</v>
       </c>
@@ -12774,7 +12783,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45231</v>
       </c>
@@ -12792,7 +12801,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45261</v>
       </c>
@@ -12810,7 +12819,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45292</v>
       </c>
@@ -12828,7 +12837,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45323</v>
       </c>
@@ -12846,7 +12855,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12862,7 +12871,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="41"/>
       <c r="B411" s="15"/>
       <c r="C411" s="42"/>
@@ -12893,10 +12902,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12919,7 +12928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12927,21 +12936,21 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -12954,7 +12963,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +12992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13009,17 +13018,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13040,7 +13049,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13067,7 +13076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13119,7 +13128,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13145,7 +13154,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13171,7 +13180,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13197,7 +13206,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13223,7 +13232,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13249,7 +13258,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13269,7 +13278,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13289,7 +13298,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13309,7 +13318,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13330,7 +13339,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13351,7 +13360,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13372,7 +13381,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13393,7 +13402,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13414,7 +13423,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13435,7 +13444,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13456,7 +13465,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13477,7 +13486,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13498,7 +13507,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13519,7 +13528,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13540,7 +13549,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13582,7 +13591,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13603,7 +13612,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13624,7 +13633,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13645,7 +13654,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13666,7 +13675,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13687,7 +13696,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13708,7 +13717,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13729,7 +13738,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13738,7 +13747,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13747,7 +13756,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13756,7 +13765,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13765,7 +13774,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13774,7 +13783,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13783,7 +13792,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13792,7 +13801,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13801,7 +13810,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13810,7 +13819,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13819,7 +13828,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13828,7 +13837,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13837,7 +13846,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13846,7 +13855,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13855,7 +13864,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13864,7 +13873,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13873,7 +13882,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13882,7 +13891,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13891,7 +13900,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13900,7 +13909,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13909,7 +13918,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13918,7 +13927,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13927,7 +13936,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13936,7 +13945,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13945,7 +13954,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13954,7 +13963,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13963,7 +13972,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13972,7 +13981,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13981,7 +13990,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13990,7 +13999,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PATAWE, ELMA.xlsx
+++ b/REGULAR/PATAWE, ELMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="304">
   <si>
     <t>PERIOD</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>CSWDO</t>
+  </si>
+  <si>
+    <t>10/3-4/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3723,7 +3729,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B401" sqref="B401"/>
+      <selection pane="bottomLeft" activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,7 +3890,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>101.12</v>
+        <v>99.37</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3894,7 +3900,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>226.5</v>
+        <v>232.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9897,11 +9903,15 @@
       <c r="A270" s="40">
         <v>41609</v>
       </c>
-      <c r="B270" s="20"/>
+      <c r="B270" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C270" s="13">
         <v>1.25</v>
       </c>
-      <c r="D270" s="39"/>
+      <c r="D270" s="39">
+        <v>3</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
       <c r="G270" s="13">
@@ -10765,11 +10775,15 @@
       <c r="A311" s="40">
         <v>42705</v>
       </c>
-      <c r="B311" s="20"/>
+      <c r="B311" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C311" s="13">
         <v>1.25</v>
       </c>
-      <c r="D311" s="39"/>
+      <c r="D311" s="39">
+        <v>2</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
       <c r="G311" s="13">
@@ -12555,11 +12569,15 @@
       <c r="A394" s="40">
         <v>44896</v>
       </c>
-      <c r="B394" s="20"/>
+      <c r="B394" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C394" s="13">
         <v>1.25</v>
       </c>
-      <c r="D394" s="39"/>
+      <c r="D394" s="39">
+        <v>1</v>
+      </c>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
       <c r="G394" s="13">
@@ -12676,13 +12694,15 @@
       <c r="B400" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C400" s="13"/>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="39">
         <v>1</v>
@@ -12698,13 +12718,15 @@
         <v>45078</v>
       </c>
       <c r="B401" s="20"/>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
@@ -12716,13 +12738,15 @@
         <v>45108</v>
       </c>
       <c r="B402" s="20"/>
-      <c r="C402" s="13"/>
+      <c r="C402" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G402" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
@@ -12734,13 +12758,15 @@
         <v>45139</v>
       </c>
       <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
@@ -12752,13 +12778,15 @@
         <v>45170</v>
       </c>
       <c r="B404" s="20"/>
-      <c r="C404" s="13"/>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
@@ -12769,9 +12797,13 @@
       <c r="A405" s="40">
         <v>45200</v>
       </c>
-      <c r="B405" s="20"/>
+      <c r="B405" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C405" s="13"/>
-      <c r="D405" s="39"/>
+      <c r="D405" s="39">
+        <v>2</v>
+      </c>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
       <c r="G405" s="13" t="str">
@@ -12781,7 +12813,9 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="20" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
@@ -12933,7 +12967,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13029,6 +13063,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13050,6 +13087,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>332.12</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13077,6 +13118,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="C8" s="37">
         <v>2</v>
       </c>

--- a/REGULAR/PATAWE, ELMA.xlsx
+++ b/REGULAR/PATAWE, ELMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/15-26/2024</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1817,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1860,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1924,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1984,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2050,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2113,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2211,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2270,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2335,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2378,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2453,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2639,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2705,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2763,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2829,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2885,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2960,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3003,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3069,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3125,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3223,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3286,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3352,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K412" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3724,12 +3730,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K412"/>
+  <dimension ref="A2:K413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F406" sqref="F406"/>
+      <selection pane="bottomLeft" activeCell="K405" sqref="K405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +3896,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.37</v>
+        <v>93.12</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3900,7 +3906,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.75</v>
+        <v>236.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12800,15 +12806,17 @@
       <c r="B405" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C405" s="13"/>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39">
         <v>2</v>
       </c>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
@@ -12842,13 +12850,15 @@
         <v>45231</v>
       </c>
       <c r="B407" s="20"/>
-      <c r="C407" s="13"/>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
@@ -12860,13 +12870,15 @@
         <v>45261</v>
       </c>
       <c r="B408" s="20"/>
-      <c r="C408" s="13"/>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D408" s="39"/>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G408" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
@@ -12874,8 +12886,8 @@
       <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40">
-        <v>45292</v>
+      <c r="A409" s="48" t="s">
+        <v>304</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12893,11 +12905,15 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B410" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="C410" s="13"/>
-      <c r="D410" s="39"/>
+      <c r="D410" s="39">
+        <v>10</v>
+      </c>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
       <c r="G410" s="13" t="str">
@@ -12907,10 +12923,14 @@
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
+      <c r="K410" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+      <c r="A411" s="40">
+        <v>45323</v>
+      </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
       <c r="D411" s="39"/>
@@ -12926,20 +12946,36 @@
       <c r="K411" s="20"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="41"/>
-      <c r="B412" s="15"/>
-      <c r="C412" s="42"/>
-      <c r="D412" s="43"/>
+      <c r="A412" s="40"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="39"/>
       <c r="E412" s="9"/>
-      <c r="F412" s="15"/>
-      <c r="G412" s="42" t="str">
+      <c r="F412" s="20"/>
+      <c r="G412" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H412" s="43"/>
+      <c r="H412" s="39"/>
       <c r="I412" s="9"/>
-      <c r="J412" s="12"/>
-      <c r="K412" s="15"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="41"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="42"/>
+      <c r="D413" s="43"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="15"/>
+      <c r="G413" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="43"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="12"/>
+      <c r="K413" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13109,7 +13145,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>332.12</v>
+        <v>329.62</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
